--- a/meta/16-1-1-1.xlsx
+++ b/meta/16-1-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="15.b.1.1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Цель 16. Содействие построению миролюбивого и открытого общества в интересах устойчивого развития, обеспечение доступа к правосудию для всех и создание эффективных, подотчетных и основанных на широком участии учреждений на всех уровнях </t>
   </si>
   <si>
-    <t>16.1.1.1a</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.1 Значительно сократить распространенность всех форм насилия и уменьшить показатели смертности от этого явления во всем мире </t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>(0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Уровень смертности, связанный с нападениями, вызвавшими смертельный исход.</t>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>16.1.1.1 Смертность от нападений на 100 000 населения</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>16.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,7 +1753,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>